--- a/practicing/内战data/内战计分表.xlsx
+++ b/practicing/内战data/内战计分表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Ubiquant\code\HOK\hok_bp\practicing\25-12-24内战\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Ubiquant\code\HOK\hok_bp\practicing\内战data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA28457-8AB1-43BE-85FD-E4731D82D786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA94D63-5F08-4C5C-9649-3E64D96FFBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7388" yWindow="16103" windowWidth="23235" windowHeight="13994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总结表" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="229">
   <si>
     <t>比赛ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,10 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>饼干-金禅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>郝事程双-苏烈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -879,6 +875,82 @@
   </si>
   <si>
     <t>天野-狄仁杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西凉锦-杨戬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜老师-杨玉环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗哥-艾琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dudu-武则天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜老师-狄仁杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战总-盾山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轩G-白起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天野-小乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰杰-孙权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天野-王昭君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏夏-元辅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜老师-甄姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天野-亚瑟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西凉锦-蚩姹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轩G-伽罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATLAB-夏洛特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战总-曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰杰-莱西奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼干-盾山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,9 +959,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,6 +1005,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -997,7 +1077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1026,33 +1106,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1333,26 +1414,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB53C56-BFC6-4AC6-8822-6483337EA216}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="4" width="13.08203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.08203125" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="13.08203125" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
-    <col min="10" max="14" width="13.08203125" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.06640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.06640625" customWidth="1"/>
+    <col min="7" max="7" width="14.265625" customWidth="1"/>
+    <col min="8" max="8" width="13.06640625" customWidth="1"/>
+    <col min="9" max="9" width="9.796875" customWidth="1"/>
+    <col min="10" max="14" width="13.06640625" customWidth="1"/>
+    <col min="15" max="15" width="9.796875" customWidth="1"/>
+    <col min="16" max="16" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1399,1225 +1482,1460 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:15" s="19" customFormat="1">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="18">
+        <v>46024</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="19" customFormat="1">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>46024</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="19" customFormat="1">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>46024</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="19" customFormat="1">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <v>46024</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="19" customFormat="1">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>46024</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
         <v>46021</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <v>46021</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <v>46021</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <v>46021</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <v>46021</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>46019</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>46021</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>46021</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" s="14" t="s">
+      <c r="G9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>46019</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="15" t="s">
+    <row r="10" spans="1:15">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>46021</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <v>46019</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11">
-        <v>46019</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="M10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" s="11">
-        <v>46018</v>
+        <v>46021</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="16" t="s">
+      <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O11" s="14" t="s">
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>46019</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <v>46018</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:15">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
       <c r="B13" s="11">
-        <v>46018</v>
+        <v>46019</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="D13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>46019</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>46019</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11">
-        <v>46018</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11">
-        <v>46018</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="J15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
       <c r="B16" s="11">
         <v>46018</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>111</v>
+      <c r="K16" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
       <c r="B17" s="11">
-        <v>46016</v>
+        <v>46018</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>46018</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>46018</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11">
-        <v>46016</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="M19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N18" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11">
-        <v>46016</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
       <c r="B20" s="11">
-        <v>46015</v>
+        <v>46018</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>158</v>
+      <c r="D20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>38</v>
+        <v>140</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>59</v>
+        <v>142</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    <row r="21" spans="1:15">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
       <c r="B21" s="11">
-        <v>46015</v>
+        <v>46018</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>80</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>67</v>
+        <v>151</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    <row r="22" spans="1:15">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
       <c r="B22" s="11">
-        <v>46015</v>
+        <v>46016</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>185</v>
+        <v>26</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="N22" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="O22" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
       <c r="B23" s="11">
-        <v>46015</v>
+        <v>46016</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="B24" s="11">
+        <v>46016</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="11">
-        <v>46014</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>194</v>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>45</v>
+      <c r="J24" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
       <c r="B25" s="11">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>57</v>
+      <c r="D25" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>58</v>
+        <v>157</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
       <c r="B26" s="11">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="17">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>46015</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="17">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>46015</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="17">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>46014</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="17">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>46014</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="17">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>46014</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="F31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M26" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="O26" s="4" t="s">
+      <c r="M31" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="O31" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11">
+    <row r="32" spans="1:15">
+      <c r="A32" s="17">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
         <v>46014</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="D32" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H27" s="15" t="s">
+      <c r="H32" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K32" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M27" s="4" t="s">
+      <c r="N32" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="N27" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="O27" s="4" t="s">
+      <c r="O32" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2633,7 +2951,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
